--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1330804.66902794</v>
+        <v>1359754.419263765</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>81083.00515982762</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728817</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>218.2133338819654</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>28.04883337012784</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702125</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>260.2548310208709</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>127.8819313525586</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>267.6048690474385</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.45403149117948</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>190.322639827404</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39.25266187003822</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.19533829602416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>192.9291252596485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>300.8638984122743</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>181.4741358095196</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1901,16 +1901,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>94.63926978364057</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>163.1336579490998</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>138.5973240860327</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>30.28266751616599</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>59.54738576120648</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>240.285204708643</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>184.5808806410313</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.7498680634313</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>9.482679290023798</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>166.9395383439689</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2615,10 +2615,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.3159054168623</v>
+        <v>40.9813706311317</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>267.8685821157979</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>144.4566831271807</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>7.058423000547998</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>98.93152011442207</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>392.2167866975183</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>43.99240337009249</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>142.5677531302076</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.8441864751649</v>
+        <v>10.11197856605508</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>48.9140155965814</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>209.0608106294478</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H41" t="n">
-        <v>60.2695197076504</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.92720347361</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>46.58646588932444</v>
+        <v>74.08031997323604</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,16 +4177,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>99.34508049624289</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.519018857857</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C2" t="n">
-        <v>1019.519018857857</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D2" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2437.610758943565</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2084.84210367345</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1711.37634541237</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921979</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>513.840561024597</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.1711973675267</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C5" t="n">
-        <v>412.2086804271149</v>
+        <v>1060.880600723209</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>702.6149021164581</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>316.8266495182139</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>316.8266495182139</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>316.8266495182139</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2615.207670282225</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2284.144782938654</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1931.37612766854</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>1557.91036940746</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.771037431648</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4626,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1568.353113282533</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1568.353113282533</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.353113282533</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.586734013689</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.321035406938</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5830699172734</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5069,22 +5069,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>2504.904000283471</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5136,25 +5136,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>190.2718927217162</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="E13" t="n">
-        <v>190.2718927217162</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F13" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5282,13 +5282,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5303,25 +5303,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.607830218103</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>1897.544942874532</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W14" t="n">
-        <v>1544.776287604418</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X14" t="n">
-        <v>1171.310529343338</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y14" t="n">
-        <v>781.1711973675267</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1993.54646147304</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="C17" t="n">
-        <v>1993.54646147304</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.28076286629</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.492510268045</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="F17" t="n">
-        <v>838.5066054784379</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>390.7161657136784</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W17" t="n">
-        <v>1993.54646147304</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X17" t="n">
-        <v>1993.54646147304</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y17" t="n">
-        <v>1993.54646147304</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5595,46 +5595,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5677,37 +5677,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>632.5337622027571</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1780.41262192169</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C20" t="n">
-        <v>1780.41262192169</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2557.151793961624</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2557.151793961624</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2557.151793961624</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2557.151793961624</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W20" t="n">
-        <v>2557.151793961624</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X20" t="n">
-        <v>2557.151793961624</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.012461985812</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
         <v>1194.968834417902</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C22" t="n">
-        <v>559.1928012785273</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D22" t="n">
-        <v>559.1928012785273</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E22" t="n">
-        <v>411.2797076961342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F22" t="n">
-        <v>411.2797076961342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G22" t="n">
-        <v>242.2799074344666</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>84.53153486699676</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5932,28 +5932,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>519.833451134349</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.9054987607761</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6017,22 +6017,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.703757037383</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2256.941971675474</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>1925.879084331904</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>1573.11042906179</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1199.64467080071</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y23" t="n">
-        <v>809.505338824898</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2342.015910972395</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7222632714563</v>
+        <v>2523.664375802635</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2523.664375802635</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.1377017843616</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C26" t="n">
-        <v>381.1377017843616</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2687.570627088905</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2687.570627088905</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2468.935960060968</v>
+        <v>2528.523294711184</v>
       </c>
       <c r="U26" t="n">
-        <v>2215.17417469906</v>
+        <v>2274.761509349275</v>
       </c>
       <c r="V26" t="n">
-        <v>1884.111287355489</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="W26" t="n">
-        <v>1531.342632085375</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="X26" t="n">
-        <v>1157.876873824295</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y26" t="n">
-        <v>767.7375418484835</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.9088977430002</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C28" t="n">
-        <v>351.9727148150933</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>2214.475051914319</v>
       </c>
       <c r="Y28" t="n">
-        <v>702.55736257324</v>
+        <v>2173.079728044489</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1970.914677487028</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C29" t="n">
-        <v>1601.952160546617</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.952160546617</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E29" t="n">
-        <v>1216.163907948372</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>805.1780031587648</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.204560006109</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.569892978172</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2023.808107616263</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1692.745220272692</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>1339.976565002578</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>966.5108067414983</v>
       </c>
       <c r="Y29" t="n">
-        <v>1970.914677487028</v>
+        <v>576.3714747656866</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.2708856551153</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C31" t="n">
-        <v>184.2708856551153</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6652,19 +6652,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.2708856551153</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.806495672433</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C32" t="n">
-        <v>1695.806495672433</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D32" t="n">
-        <v>1695.806495672433</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E32" t="n">
-        <v>1310.018243074188</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F32" t="n">
-        <v>899.0323382845809</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>481.0685301827677</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>153.8738102187706</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6734,16 +6734,16 @@
         <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2048.575150942547</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1695.806495672433</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>1695.806495672433</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y32" t="n">
-        <v>1695.806495672433</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>663.910013048764</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>517.0200655508536</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.945354755378</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>450.1215542421001</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6974,13 +6974,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.684526795312</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.5451948195</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2067.399859713054</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7117,28 +7117,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2553.141259573568</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="T37" t="n">
-        <v>2469.840903686824</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="U37" t="n">
-        <v>2469.840903686824</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="V37" t="n">
-        <v>2469.840903686824</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="W37" t="n">
-        <v>2469.840903686824</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.840903686824</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="Y37" t="n">
-        <v>2249.048324543294</v>
+        <v>2338.852836391731</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755378</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2591.772738442488</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="U38" t="n">
-        <v>2338.01095308058</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="V38" t="n">
-        <v>2338.01095308058</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W38" t="n">
-        <v>2338.01095308058</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X38" t="n">
-        <v>1964.5451948195</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7272,22 +7272,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940985</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117053</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F40" t="n">
-        <v>430.0992512117053</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G40" t="n">
-        <v>261.0994509500377</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>103.3510783825679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7360,22 +7360,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>516.956448217093</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2056.787465592192</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C41" t="n">
-        <v>1687.82494865178</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D41" t="n">
-        <v>1329.55925004503</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E41" t="n">
-        <v>943.7709974467855</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F41" t="n">
-        <v>532.785092657178</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G41" t="n">
-        <v>114.8212845553649</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7442,19 +7442,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="42">
@@ -7500,10 +7500,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V43" t="n">
-        <v>2442.464602812336</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W43" t="n">
-        <v>2153.047432775375</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.737983561872</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
         <v>1268.68094731003</v>
@@ -7643,16 +7643,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036425</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V44" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W44" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X44" t="n">
-        <v>2092.477155601806</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y44" t="n">
-        <v>1702.337823625994</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7725,43 +7725,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2204.94852396637</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C46" t="n">
-        <v>2204.94852396637</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D46" t="n">
-        <v>2204.94852396637</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E46" t="n">
-        <v>2204.94852396637</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F46" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2204.94852396637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2204.94852396637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2204.94852396637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>2204.94852396637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>2204.94852396637</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>2204.94852396637</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>136.4697077387176</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>299.7034251000071</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787177</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22790,7 +22790,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22799,7 +22799,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>63.66794174348621</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22832,25 +22832,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,19 +22948,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22993,13 +22993,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23024,10 +23024,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.8011102681244</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23039,7 +23039,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,22 +23072,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>81.6360996699745</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>111.9799311553897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>26.12568053025376</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>109.3628111481741</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23473,7 +23473,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.3893150560706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>58.29504224864084</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>112.9202716085207</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>142.4486369548376</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>117.5062691663783</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>219.6001837143808</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>35.81838872293886</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>104.6829542761722</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>159.0372675908883</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>173.498965312152</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>31.86743971662654</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,7 +24412,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>40.39567088658765</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,13 +24443,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>44.99572328478791</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>49.50878201368889</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24658,16 +24658,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.2687479352325</v>
+        <v>177.6032827209631</v>
       </c>
     </row>
     <row r="29">
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>145.9155879049971</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>29.95902968179081</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>19.59084822180904</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.6403602933822</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24892,10 +24892,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>358.2144687704596</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>52.99979613043918</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25129,16 +25129,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>21.56738332327672</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>123.2544177285353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25357,13 +25357,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>4.097438849950265</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>166.6041338824929</v>
+        <v>206.3363417916027</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25549,25 +25549,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>86.05160619575682</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25600,7 +25600,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>15.97429482863649</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H41" t="n">
-        <v>263.6532530567068</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>24.03841831872818</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,19 +25837,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>318.6864258816831</v>
+        <v>291.1925717977715</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,16 +26065,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>125.6900249618414</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165453</v>
+      </c>
+      <c r="C2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="C2" t="n">
-        <v>303610.2405165453</v>
-      </c>
       <c r="D2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="E2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="E2" t="n">
-        <v>303610.2405165453</v>
-      </c>
       <c r="F2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="G2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>303610.2405165456</v>
       </c>
-      <c r="H2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="I2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="J2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="K2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="N2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="O2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>3973.22941128696</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="J4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>3973.22941128696</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26491,7 +26491,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373189.9461726955</v>
+        <v>-369729.8252604682</v>
       </c>
       <c r="C6" t="n">
-        <v>216777.9330418489</v>
+        <v>220238.0539540763</v>
       </c>
       <c r="D6" t="n">
-        <v>216777.933041849</v>
+        <v>220238.0539540764</v>
       </c>
       <c r="E6" t="n">
-        <v>250405.5330418489</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="F6" t="n">
-        <v>250405.5330418491</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="G6" t="n">
-        <v>250405.5330418492</v>
+        <v>253865.6539540764</v>
       </c>
       <c r="H6" t="n">
-        <v>250405.533041849</v>
+        <v>253865.6539540765</v>
       </c>
       <c r="I6" t="n">
-        <v>250405.533041849</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="J6" t="n">
-        <v>73982.31384925602</v>
+        <v>77442.43476148319</v>
       </c>
       <c r="K6" t="n">
-        <v>250405.5330418489</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="L6" t="n">
-        <v>250405.533041849</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="M6" t="n">
-        <v>250405.533041849</v>
+        <v>253865.6539540764</v>
       </c>
       <c r="N6" t="n">
-        <v>250405.5330418489</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="O6" t="n">
-        <v>250405.533041849</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="P6" t="n">
-        <v>250405.5330418489</v>
+        <v>253865.6539540763</v>
       </c>
     </row>
   </sheetData>
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31379,7 +31379,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32096,7 +32096,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32789,7 +32789,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32807,7 +32807,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33044,7 +33044,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33272,7 +33272,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
@@ -33515,7 +33515,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
@@ -33752,7 +33752,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
@@ -34226,7 +34226,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36437,7 +36437,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37163,10 +37163,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060965</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38023,7 +38023,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359754.419263765</v>
+        <v>1388744.690012906</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81083.00515982762</v>
+        <v>35044.57677822694</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>8859705.39034098</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8191592.578713061</v>
+        <v>8260328.549612712</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486054</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>28.04883337012784</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>260.2548310208709</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.046941950709</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>173.6677896396943</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>335.3138620892173</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>127.8819313525586</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.322639827404</v>
+        <v>10.11197856605508</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.25266187003822</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C14" t="n">
-        <v>138.3038958997682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>128.4678304511571</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>181.4741358095196</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>26.64360395382558</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>163.1336579490998</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>321.7107513386442</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.54738576120648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>240.285204708643</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>274.487665874544</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.3855849453558</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>166.9395383439689</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.9813706311317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>144.4566831271807</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>42.55249764492844</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>168.7756050755992</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.058423000547998</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>42.94935504550594</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3123,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>129.0246247964034</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>392.2167866975183</v>
+        <v>364.9396266260652</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>142.5677531302076</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3520,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>270.6226856612334</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>10.11197856605508</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>209.0608106294478</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>249.4237682275164</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.92720347361</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>7.080813308215124</v>
       </c>
       <c r="C44" t="n">
-        <v>74.08031997323604</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.0278718857022</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.637173372437</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C2" t="n">
-        <v>565.6746564320254</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.610758943565</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.84210367345</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.37634541237</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.237013436559</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1429.84311766362</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1060.880600723209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>702.6149021164581</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>316.8266495182139</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>316.8266495182139</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>316.8266495182139</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.442957727742</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y5" t="n">
-        <v>1816.442957727742</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.515311311824</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,25 +4901,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2118.304160219349</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C11" t="n">
         <v>1749.341643278937</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5069,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2504.904000283471</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="U11" t="n">
-        <v>2504.904000283471</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="V11" t="n">
-        <v>2504.904000283471</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W11" t="n">
-        <v>2504.904000283471</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X11" t="n">
-        <v>2504.904000283471</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y11" t="n">
-        <v>2504.904000283471</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>688.4798308023552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>540.5667372199621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C14" t="n">
         <v>2107.607341885688</v>
@@ -5276,7 +5278,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5303,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y14" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5363,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5458,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.7161657136784</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>390.7161657136784</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>390.7161657136784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>390.7161657136784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>390.7161657136784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>390.7161657136784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>777.3160057778002</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1905.140074719376</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C20" t="n">
-        <v>1536.177557778964</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.911859172214</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1236065739693</v>
+        <v>796.867144809697</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>796.867144809697</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>378.9033367078839</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V20" t="n">
-        <v>2443.387305656314</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W20" t="n">
-        <v>2443.387305656314</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X20" t="n">
-        <v>2069.921547395234</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y20" t="n">
-        <v>2069.921547395234</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5932,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>519.833451134349</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>777.3160057778002</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C23" t="n">
-        <v>777.3160057778002</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D23" t="n">
-        <v>777.3160057778002</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E23" t="n">
-        <v>777.3160057778002</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F23" t="n">
-        <v>777.3160057778002</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5990,16 +5992,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6017,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014692</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1167.455337753612</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>777.3160057778002</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>368.8844281164668</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>773.5003462121387</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1297.64725977017</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2342.015910972395</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C25" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
         <v>2022.963088632153</v>
@@ -6172,25 +6174,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>2523.664375802635</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W25" t="n">
-        <v>2523.664375802635</v>
+        <v>2419.888822458077</v>
       </c>
       <c r="X25" t="n">
-        <v>2523.664375802635</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="Y25" t="n">
-        <v>2523.664375802635</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.959449965771</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253592</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>951.1547736936718</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2528.523294711184</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2274.761509349275</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>1943.698622005704</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W26" t="n">
-        <v>1943.698622005704</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X26" t="n">
-        <v>1943.698622005704</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y26" t="n">
-        <v>1553.559290029893</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W28" t="n">
-        <v>2442.464602812336</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X28" t="n">
-        <v>2214.475051914319</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>576.3714747656866</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C29" t="n">
-        <v>207.4089578252748</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2496.204560006109</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2277.569892978172</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2023.808107616263</v>
+        <v>2654.16677016476</v>
       </c>
       <c r="V29" t="n">
-        <v>1692.745220272692</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W29" t="n">
-        <v>1339.976565002578</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X29" t="n">
-        <v>966.5108067414983</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y29" t="n">
-        <v>576.3714747656866</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.5386780278486</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C32" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2653.76590410357</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2400.004118741662</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2068.941231398091</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>1716.172576127977</v>
       </c>
       <c r="X32" t="n">
-        <v>991.2778500677821</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y32" t="n">
-        <v>601.1385180919704</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2407.975480672791</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2153.290992466904</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2153.290992466904</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2594.34031553383</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2373.5477363903</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C35" t="n">
-        <v>1194.175505447095</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D35" t="n">
-        <v>835.9098068403443</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E35" t="n">
-        <v>450.1215542421001</v>
+        <v>903.2295632701459</v>
       </c>
       <c r="F35" t="n">
-        <v>450.1215542421001</v>
+        <v>903.2295632701459</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>2191.96288889382</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7101,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R37" t="n">
-        <v>2553.141259573568</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>2338.852836391731</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.852836391731</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>2338.852836391731</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C38" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7175,10 +7177,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2686.93497125453</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2433.173185892622</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2102.110298549051</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y38" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C40" t="n">
-        <v>348.0202652891861</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D40" t="n">
-        <v>348.0202652891861</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E40" t="n">
-        <v>348.0202652891861</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F40" t="n">
-        <v>348.0202652891861</v>
+        <v>2083.293227597676</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.956448217093</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2310.5492509541</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>1941.586734013689</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D41" t="n">
-        <v>1583.321035406938</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E41" t="n">
-        <v>1197.532782808694</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F41" t="n">
-        <v>786.5468780190865</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7415,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7448,13 +7450,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>2697.149091018222</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7506,7 +7508,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6471865296039</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6471865296039</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.6471865296039</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1701.775251950352</v>
+        <v>1776.509221818346</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036425</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.514423990285</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V44" t="n">
-        <v>2478.514423990285</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W44" t="n">
-        <v>2478.514423990285</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.514423990285</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y44" t="n">
-        <v>2088.375092014473</v>
+        <v>1783.661558493311</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1228.11705882825</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1901.322751081031</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2162.974525573485</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2586.942294054321</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>546.4805193761945</v>
+        <v>242.9279780545274</v>
       </c>
       <c r="C46" t="n">
-        <v>377.5443364482876</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D46" t="n">
-        <v>227.4276970359519</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E46" t="n">
-        <v>79.51460345355875</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>787.0296362973749</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>532.345148091488</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>242.9279780545274</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>242.9279780545274</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>242.9279780545274</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10127,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>371.34275233862</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,7 +22564,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22600,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>299.7034251000071</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22720,13 +22722,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555246</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,10 +22758,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>63.66794174348621</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.68415872776006</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22960,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>51.36731581838995</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>47.41997957426332</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>226.8011102681244</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>26.12568053025376</v>
+        <v>206.3363417916027</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>109.3628111481741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23473,13 +23475,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C14" t="n">
-        <v>226.9689958712394</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.70305839063809</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23747,10 +23749,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>142.4486369548376</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>224.5805635544637</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>12.03533246204697</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,22 +23940,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.6001837143808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.212021425712919</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24020,19 +24022,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.0372675908883</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>173.498965312152</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,7 +24414,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>40.39567088658765</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204699</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>1.398585075439144</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,19 +24496,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>49.50878201368889</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24658,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.6032827209631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>29.95902968179081</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>208.6716698633608</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>43.6403602933822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24886,10 +24888,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248507</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>358.2144687704596</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>173.4989653121519</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.68503059263372</v>
+        <v>123.9289676594883</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>21.56738332327672</v>
+        <v>48.84454339472978</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.097438849950265</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.3363417916027</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831827</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25600,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>15.97429482863649</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>164.3604017932786</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>24.03841831872818</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>59.30821556748145</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>375.6530283552655</v>
       </c>
       <c r="C44" t="n">
-        <v>291.1925717977715</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>2.232782772394785</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708423.8945386063</v>
+        <v>827452.3564486428</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="E2" t="n">
         <v>303610.2405165456</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="G2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="F2" t="n">
-        <v>303610.2405165454</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>303610.2405165453</v>
+      </c>
+      <c r="J2" t="n">
         <v>303610.2405165456</v>
       </c>
-      <c r="I2" t="n">
-        <v>303610.2405165455</v>
-      </c>
-      <c r="J2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="K2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="L2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="M2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="N2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="O2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="O2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="P2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779895</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>202824.0593593175</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26420,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26436,7 +26438,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>639.5264553066584</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26491,16 +26493,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360136</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-369729.8252604682</v>
       </c>
       <c r="C6" t="n">
+        <v>220238.0539540764</v>
+      </c>
+      <c r="D6" t="n">
         <v>220238.0539540763</v>
       </c>
-      <c r="D6" t="n">
-        <v>220238.0539540764</v>
-      </c>
       <c r="E6" t="n">
+        <v>253865.6539540765</v>
+      </c>
+      <c r="F6" t="n">
+        <v>253865.6539540765</v>
+      </c>
+      <c r="G6" t="n">
+        <v>253865.6539540763</v>
+      </c>
+      <c r="H6" t="n">
+        <v>253865.6539540764</v>
+      </c>
+      <c r="I6" t="n">
         <v>253865.6539540762</v>
       </c>
-      <c r="F6" t="n">
-        <v>253865.6539540762</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>77442.43476148346</v>
+      </c>
+      <c r="K6" t="n">
+        <v>253865.6539540761</v>
+      </c>
+      <c r="L6" t="n">
         <v>253865.6539540764</v>
-      </c>
-      <c r="H6" t="n">
-        <v>253865.6539540765</v>
-      </c>
-      <c r="I6" t="n">
-        <v>253865.6539540763</v>
-      </c>
-      <c r="J6" t="n">
-        <v>77442.43476148319</v>
-      </c>
-      <c r="K6" t="n">
-        <v>253865.6539540762</v>
-      </c>
-      <c r="L6" t="n">
-        <v>253865.6539540763</v>
       </c>
       <c r="M6" t="n">
         <v>253865.6539540764</v>
       </c>
       <c r="N6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540766</v>
       </c>
       <c r="O6" t="n">
         <v>253865.6539540763</v>
       </c>
       <c r="P6" t="n">
-        <v>253865.6539540763</v>
+        <v>81987.30937976397</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380636</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26811,16 +26813,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827563</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.732436120977</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>160.6967431133298</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32096,19 +32098,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32324,7 +32326,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391989</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32333,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32789,10 +32791,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32807,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33041,10 +33043,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33272,7 +33274,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
@@ -33500,7 +33502,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33515,7 +33517,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
@@ -33974,7 +33976,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L39" t="n">
         <v>176.4169820478007</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>35.71704454958058</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>13.02864687726418</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>392.9827086369148</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994192</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36689,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37163,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37561,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751875</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>264.2947217095493</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
